--- a/Simulation_power_analysis/plans.xlsx
+++ b/Simulation_power_analysis/plans.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLATCOV-SAP\Simulation_power_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA27FB4-EB3A-45EB-B54B-D28703FE3D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102CFB5F-21FF-4877-97E6-59A5E0CFFAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5138F33A-F5E5-40D5-ACA5-35C5F0F78270}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{5138F33A-F5E5-40D5-ACA5-35C5F0F78270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>N follow-up</t>
   </si>
@@ -52,6 +53,9 @@
   </si>
   <si>
     <t>Test wheter second swabs provides extra information from our data</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -405,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D83491A-91FB-4240-84FD-879225388C93}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -492,4 +496,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B1815-2B44-4A78-929E-0F03F5992F51}">
+  <dimension ref="B1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>